--- a/十一月销售数据/用户保险信息金鹤园一期11-4.xlsx
+++ b/十一月销售数据/用户保险信息金鹤园一期11-4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
@@ -3287,11 +3287,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3663,8 +3663,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3688,18 +3688,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="24">
       <c r="A2" s="3" t="s">
@@ -6261,7 +6261,9 @@
       <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" s="14"/>
+      <c r="B84" s="14">
+        <v>43043</v>
+      </c>
       <c r="C84" s="2"/>
       <c r="D84" s="26" t="s">
         <v>368</v>
@@ -6290,7 +6292,9 @@
       <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" s="14"/>
+      <c r="B85" s="14">
+        <v>43043</v>
+      </c>
       <c r="C85" s="2"/>
       <c r="D85" s="26" t="s">
         <v>369</v>
@@ -6319,9 +6323,11 @@
       <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" s="14"/>
+      <c r="B86" s="14">
+        <v>43043</v>
+      </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="31" t="s">
+      <c r="D86" s="30" t="s">
         <v>442</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -6348,9 +6354,11 @@
       <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B87" s="14"/>
+      <c r="B87" s="14">
+        <v>43043</v>
+      </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="31" t="s">
+      <c r="D87" s="30" t="s">
         <v>443</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -6377,9 +6385,11 @@
       <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" s="14"/>
+      <c r="B88" s="14">
+        <v>43043</v>
+      </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="31" t="s">
+      <c r="D88" s="30" t="s">
         <v>444</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -6406,9 +6416,11 @@
       <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" s="14"/>
+      <c r="B89" s="14">
+        <v>43043</v>
+      </c>
       <c r="C89" s="2"/>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="30" t="s">
         <v>445</v>
       </c>
       <c r="E89" s="7" t="s">
@@ -6435,9 +6447,11 @@
       <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" s="14"/>
+      <c r="B90" s="14">
+        <v>43043</v>
+      </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="30" t="s">
         <v>446</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -6464,9 +6478,11 @@
       <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" s="14"/>
+      <c r="B91" s="14">
+        <v>43043</v>
+      </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="31" t="s">
+      <c r="D91" s="30" t="s">
         <v>447</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -6493,9 +6509,11 @@
       <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" s="14"/>
+      <c r="B92" s="14">
+        <v>43043</v>
+      </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="30" t="s">
         <v>448</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -6522,9 +6540,11 @@
       <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" s="14"/>
+      <c r="B93" s="14">
+        <v>43043</v>
+      </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="30" t="s">
         <v>449</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -6551,9 +6571,11 @@
       <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" s="14"/>
+      <c r="B94" s="14">
+        <v>43043</v>
+      </c>
       <c r="C94" s="2"/>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="30" t="s">
         <v>450</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -6580,9 +6602,11 @@
       <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" s="14"/>
+      <c r="B95" s="14">
+        <v>43043</v>
+      </c>
       <c r="C95" s="2"/>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="30" t="s">
         <v>451</v>
       </c>
       <c r="E95" s="7" t="s">
@@ -6609,9 +6633,11 @@
       <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" s="14"/>
+      <c r="B96" s="14">
+        <v>43043</v>
+      </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="30" t="s">
         <v>452</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -6638,9 +6664,11 @@
       <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" s="14"/>
+      <c r="B97" s="14">
+        <v>43043</v>
+      </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="30" t="s">
         <v>453</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -6667,9 +6695,11 @@
       <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" s="14"/>
+      <c r="B98" s="14">
+        <v>43043</v>
+      </c>
       <c r="C98" s="2"/>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="30" t="s">
         <v>454</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -6696,9 +6726,11 @@
       <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" s="14"/>
+      <c r="B99" s="14">
+        <v>43043</v>
+      </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="31" t="s">
+      <c r="D99" s="30" t="s">
         <v>455</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -6725,9 +6757,11 @@
       <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" s="14"/>
+      <c r="B100" s="14">
+        <v>43043</v>
+      </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="30" t="s">
         <v>456</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -6754,9 +6788,11 @@
       <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" s="14"/>
+      <c r="B101" s="14">
+        <v>43043</v>
+      </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="30" t="s">
         <v>457</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -6783,9 +6819,11 @@
       <c r="A102" s="2">
         <v>100</v>
       </c>
-      <c r="B102" s="14"/>
+      <c r="B102" s="14">
+        <v>43043</v>
+      </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="30" t="s">
         <v>458</v>
       </c>
       <c r="E102" s="7" t="s">
@@ -6812,9 +6850,11 @@
       <c r="A103" s="2">
         <v>101</v>
       </c>
-      <c r="B103" s="14"/>
+      <c r="B103" s="14">
+        <v>43043</v>
+      </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="31" t="s">
+      <c r="D103" s="30" t="s">
         <v>459</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -6841,9 +6881,11 @@
       <c r="A104" s="2">
         <v>102</v>
       </c>
-      <c r="B104" s="14"/>
+      <c r="B104" s="14">
+        <v>43043</v>
+      </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="30" t="s">
         <v>549</v>
       </c>
       <c r="E104" s="7" t="s">
@@ -6870,9 +6912,11 @@
       <c r="A105" s="2">
         <v>103</v>
       </c>
-      <c r="B105" s="14"/>
+      <c r="B105" s="14">
+        <v>43043</v>
+      </c>
       <c r="C105" s="2"/>
-      <c r="D105" s="31" t="s">
+      <c r="D105" s="30" t="s">
         <v>532</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -6899,9 +6943,11 @@
       <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" s="14"/>
+      <c r="B106" s="14">
+        <v>43043</v>
+      </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="30" t="s">
         <v>533</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -6928,9 +6974,11 @@
       <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="14"/>
+      <c r="B107" s="14">
+        <v>43043</v>
+      </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="30" t="s">
         <v>534</v>
       </c>
       <c r="E107" s="7" t="s">
@@ -6957,9 +7005,11 @@
       <c r="A108" s="2">
         <v>106</v>
       </c>
-      <c r="B108" s="14"/>
+      <c r="B108" s="14">
+        <v>43043</v>
+      </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="30" t="s">
         <v>535</v>
       </c>
       <c r="E108" s="7" t="s">
@@ -6986,9 +7036,11 @@
       <c r="A109" s="2">
         <v>107</v>
       </c>
-      <c r="B109" s="14"/>
+      <c r="B109" s="14">
+        <v>43043</v>
+      </c>
       <c r="C109" s="2"/>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="30" t="s">
         <v>536</v>
       </c>
       <c r="E109" s="7" t="s">
@@ -7015,9 +7067,11 @@
       <c r="A110" s="2">
         <v>108</v>
       </c>
-      <c r="B110" s="14"/>
+      <c r="B110" s="14">
+        <v>43043</v>
+      </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="30" t="s">
         <v>537</v>
       </c>
       <c r="E110" s="7" t="s">
@@ -7044,9 +7098,11 @@
       <c r="A111" s="2">
         <v>109</v>
       </c>
-      <c r="B111" s="14"/>
+      <c r="B111" s="14">
+        <v>43043</v>
+      </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="30" t="s">
         <v>538</v>
       </c>
       <c r="E111" s="7" t="s">
@@ -7073,9 +7129,11 @@
       <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B112" s="14"/>
+      <c r="B112" s="14">
+        <v>43043</v>
+      </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="30" t="s">
         <v>539</v>
       </c>
       <c r="E112" s="7" t="s">
@@ -7102,9 +7160,11 @@
       <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" s="14"/>
+      <c r="B113" s="14">
+        <v>43043</v>
+      </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="30" t="s">
         <v>540</v>
       </c>
       <c r="E113" s="7" t="s">
@@ -7131,9 +7191,11 @@
       <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" s="14"/>
+      <c r="B114" s="14">
+        <v>43043</v>
+      </c>
       <c r="C114" s="2"/>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="30" t="s">
         <v>541</v>
       </c>
       <c r="E114" s="7" t="s">
@@ -7160,9 +7222,11 @@
       <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" s="14"/>
+      <c r="B115" s="14">
+        <v>43043</v>
+      </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="30" t="s">
         <v>542</v>
       </c>
       <c r="E115" s="7" t="s">
@@ -7189,9 +7253,11 @@
       <c r="A116" s="2">
         <v>114</v>
       </c>
-      <c r="B116" s="14"/>
+      <c r="B116" s="14">
+        <v>43043</v>
+      </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="30" t="s">
         <v>543</v>
       </c>
       <c r="E116" s="7" t="s">
@@ -7218,9 +7284,11 @@
       <c r="A117" s="2">
         <v>115</v>
       </c>
-      <c r="B117" s="14"/>
+      <c r="B117" s="14">
+        <v>43043</v>
+      </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="30" t="s">
         <v>544</v>
       </c>
       <c r="E117" s="7" t="s">
@@ -7247,9 +7315,11 @@
       <c r="A118" s="2">
         <v>116</v>
       </c>
-      <c r="B118" s="14"/>
+      <c r="B118" s="14">
+        <v>43043</v>
+      </c>
       <c r="C118" s="2"/>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="30" t="s">
         <v>545</v>
       </c>
       <c r="E118" s="7" t="s">
@@ -7276,9 +7346,11 @@
       <c r="A119" s="2">
         <v>117</v>
       </c>
-      <c r="B119" s="14"/>
+      <c r="B119" s="14">
+        <v>43043</v>
+      </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="30" t="s">
         <v>546</v>
       </c>
       <c r="E119" s="7" t="s">
@@ -7305,9 +7377,11 @@
       <c r="A120" s="2">
         <v>118</v>
       </c>
-      <c r="B120" s="14"/>
+      <c r="B120" s="14">
+        <v>43043</v>
+      </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="31" t="s">
+      <c r="D120" s="30" t="s">
         <v>547</v>
       </c>
       <c r="E120" s="7" t="s">
@@ -7334,9 +7408,11 @@
       <c r="A121" s="2">
         <v>119</v>
       </c>
-      <c r="B121" s="14"/>
+      <c r="B121" s="14">
+        <v>43043</v>
+      </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="30" t="s">
         <v>548</v>
       </c>
       <c r="E121" s="7" t="s">
@@ -7363,9 +7439,11 @@
       <c r="A122" s="2">
         <v>120</v>
       </c>
-      <c r="B122" s="14"/>
+      <c r="B122" s="14">
+        <v>43043</v>
+      </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="30" t="s">
         <v>625</v>
       </c>
       <c r="E122" s="7" t="s">
@@ -7392,9 +7470,11 @@
       <c r="A123" s="2">
         <v>121</v>
       </c>
-      <c r="B123" s="14"/>
+      <c r="B123" s="14">
+        <v>43043</v>
+      </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="31" t="s">
+      <c r="D123" s="30" t="s">
         <v>626</v>
       </c>
       <c r="E123" s="7" t="s">
@@ -7421,9 +7501,11 @@
       <c r="A124" s="2">
         <v>122</v>
       </c>
-      <c r="B124" s="14"/>
+      <c r="B124" s="14">
+        <v>43043</v>
+      </c>
       <c r="C124" s="2"/>
-      <c r="D124" s="31" t="s">
+      <c r="D124" s="30" t="s">
         <v>627</v>
       </c>
       <c r="E124" s="7" t="s">
@@ -7450,9 +7532,11 @@
       <c r="A125" s="2">
         <v>123</v>
       </c>
-      <c r="B125" s="14"/>
+      <c r="B125" s="14">
+        <v>43043</v>
+      </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="30" t="s">
         <v>628</v>
       </c>
       <c r="E125" s="7" t="s">
@@ -7479,9 +7563,11 @@
       <c r="A126" s="2">
         <v>124</v>
       </c>
-      <c r="B126" s="14"/>
+      <c r="B126" s="14">
+        <v>43043</v>
+      </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="30" t="s">
         <v>629</v>
       </c>
       <c r="E126" s="7" t="s">
@@ -7508,9 +7594,11 @@
       <c r="A127" s="2">
         <v>125</v>
       </c>
-      <c r="B127" s="14"/>
+      <c r="B127" s="14">
+        <v>43043</v>
+      </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="30" t="s">
         <v>630</v>
       </c>
       <c r="E127" s="7" t="s">
@@ -7537,9 +7625,11 @@
       <c r="A128" s="2">
         <v>126</v>
       </c>
-      <c r="B128" s="14"/>
+      <c r="B128" s="14">
+        <v>43043</v>
+      </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="30" t="s">
         <v>631</v>
       </c>
       <c r="E128" s="7" t="s">
@@ -7566,9 +7656,11 @@
       <c r="A129" s="2">
         <v>127</v>
       </c>
-      <c r="B129" s="14"/>
+      <c r="B129" s="14">
+        <v>43043</v>
+      </c>
       <c r="C129" s="2"/>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="30" t="s">
         <v>632</v>
       </c>
       <c r="E129" s="7" t="s">
@@ -7595,9 +7687,11 @@
       <c r="A130" s="2">
         <v>128</v>
       </c>
-      <c r="B130" s="14"/>
+      <c r="B130" s="14">
+        <v>43043</v>
+      </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="30" t="s">
         <v>633</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -7624,9 +7718,11 @@
       <c r="A131" s="2">
         <v>129</v>
       </c>
-      <c r="B131" s="14"/>
+      <c r="B131" s="14">
+        <v>43043</v>
+      </c>
       <c r="C131" s="2"/>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="30" t="s">
         <v>634</v>
       </c>
       <c r="E131" s="7" t="s">
@@ -7653,9 +7749,11 @@
       <c r="A132" s="2">
         <v>130</v>
       </c>
-      <c r="B132" s="14"/>
+      <c r="B132" s="14">
+        <v>43043</v>
+      </c>
       <c r="C132" s="2"/>
-      <c r="D132" s="31" t="s">
+      <c r="D132" s="30" t="s">
         <v>635</v>
       </c>
       <c r="E132" s="7" t="s">
@@ -7682,9 +7780,11 @@
       <c r="A133" s="2">
         <v>131</v>
       </c>
-      <c r="B133" s="14"/>
+      <c r="B133" s="14">
+        <v>43043</v>
+      </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="31" t="s">
+      <c r="D133" s="30" t="s">
         <v>636</v>
       </c>
       <c r="E133" s="7" t="s">
@@ -7711,9 +7811,11 @@
       <c r="A134" s="2">
         <v>132</v>
       </c>
-      <c r="B134" s="14"/>
+      <c r="B134" s="14">
+        <v>43043</v>
+      </c>
       <c r="C134" s="2"/>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="30" t="s">
         <v>637</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -7740,9 +7842,11 @@
       <c r="A135" s="2">
         <v>133</v>
       </c>
-      <c r="B135" s="14"/>
+      <c r="B135" s="14">
+        <v>43043</v>
+      </c>
       <c r="C135" s="2"/>
-      <c r="D135" s="31" t="s">
+      <c r="D135" s="30" t="s">
         <v>638</v>
       </c>
       <c r="E135" s="7" t="s">
@@ -7769,9 +7873,11 @@
       <c r="A136" s="2">
         <v>134</v>
       </c>
-      <c r="B136" s="14"/>
+      <c r="B136" s="14">
+        <v>43043</v>
+      </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="31" t="s">
+      <c r="D136" s="30" t="s">
         <v>639</v>
       </c>
       <c r="E136" s="7" t="s">
@@ -7798,9 +7904,11 @@
       <c r="A137" s="2">
         <v>135</v>
       </c>
-      <c r="B137" s="14"/>
+      <c r="B137" s="14">
+        <v>43043</v>
+      </c>
       <c r="C137" s="2"/>
-      <c r="D137" s="31" t="s">
+      <c r="D137" s="30" t="s">
         <v>640</v>
       </c>
       <c r="E137" s="7" t="s">
@@ -7827,9 +7935,11 @@
       <c r="A138" s="2">
         <v>136</v>
       </c>
-      <c r="B138" s="14"/>
+      <c r="B138" s="14">
+        <v>43043</v>
+      </c>
       <c r="C138" s="2"/>
-      <c r="D138" s="31" t="s">
+      <c r="D138" s="30" t="s">
         <v>641</v>
       </c>
       <c r="E138" s="7" t="s">
@@ -7856,9 +7966,11 @@
       <c r="A139" s="2">
         <v>137</v>
       </c>
-      <c r="B139" s="14"/>
+      <c r="B139" s="14">
+        <v>43043</v>
+      </c>
       <c r="C139" s="2"/>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="30" t="s">
         <v>710</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -7885,9 +7997,11 @@
       <c r="A140" s="2">
         <v>138</v>
       </c>
-      <c r="B140" s="14"/>
+      <c r="B140" s="14">
+        <v>43043</v>
+      </c>
       <c r="C140" s="2"/>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="30" t="s">
         <v>711</v>
       </c>
       <c r="E140" s="7" t="s">
@@ -7914,9 +8028,11 @@
       <c r="A141" s="2">
         <v>139</v>
       </c>
-      <c r="B141" s="14"/>
+      <c r="B141" s="14">
+        <v>43043</v>
+      </c>
       <c r="C141" s="2"/>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="30" t="s">
         <v>712</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -7943,9 +8059,11 @@
       <c r="A142" s="2">
         <v>140</v>
       </c>
-      <c r="B142" s="14"/>
+      <c r="B142" s="14">
+        <v>43043</v>
+      </c>
       <c r="C142" s="2"/>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="30" t="s">
         <v>713</v>
       </c>
       <c r="E142" s="7" t="s">
@@ -7972,9 +8090,11 @@
       <c r="A143" s="2">
         <v>141</v>
       </c>
-      <c r="B143" s="14"/>
+      <c r="B143" s="14">
+        <v>43043</v>
+      </c>
       <c r="C143" s="2"/>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="30" t="s">
         <v>714</v>
       </c>
       <c r="E143" s="7" t="s">
@@ -8001,9 +8121,11 @@
       <c r="A144" s="2">
         <v>142</v>
       </c>
-      <c r="B144" s="14"/>
+      <c r="B144" s="14">
+        <v>43043</v>
+      </c>
       <c r="C144" s="2"/>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="30" t="s">
         <v>715</v>
       </c>
       <c r="E144" s="7" t="s">
@@ -8030,9 +8152,11 @@
       <c r="A145" s="2">
         <v>143</v>
       </c>
-      <c r="B145" s="14"/>
+      <c r="B145" s="14">
+        <v>43043</v>
+      </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="31" t="s">
+      <c r="D145" s="30" t="s">
         <v>716</v>
       </c>
       <c r="E145" s="7" t="s">
@@ -8059,9 +8183,11 @@
       <c r="A146" s="2">
         <v>144</v>
       </c>
-      <c r="B146" s="14"/>
+      <c r="B146" s="14">
+        <v>43043</v>
+      </c>
       <c r="C146" s="2"/>
-      <c r="D146" s="31" t="s">
+      <c r="D146" s="30" t="s">
         <v>717</v>
       </c>
       <c r="E146" s="7" t="s">
@@ -8088,9 +8214,11 @@
       <c r="A147" s="2">
         <v>145</v>
       </c>
-      <c r="B147" s="14"/>
+      <c r="B147" s="14">
+        <v>43043</v>
+      </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="30" t="s">
         <v>718</v>
       </c>
       <c r="E147" s="7" t="s">
@@ -8117,9 +8245,11 @@
       <c r="A148" s="2">
         <v>146</v>
       </c>
-      <c r="B148" s="14"/>
+      <c r="B148" s="14">
+        <v>43043</v>
+      </c>
       <c r="C148" s="2"/>
-      <c r="D148" s="31" t="s">
+      <c r="D148" s="30" t="s">
         <v>719</v>
       </c>
       <c r="E148" s="7" t="s">
@@ -8146,9 +8276,11 @@
       <c r="A149" s="2">
         <v>147</v>
       </c>
-      <c r="B149" s="14"/>
+      <c r="B149" s="14">
+        <v>43043</v>
+      </c>
       <c r="C149" s="2"/>
-      <c r="D149" s="31" t="s">
+      <c r="D149" s="30" t="s">
         <v>720</v>
       </c>
       <c r="E149" s="7" t="s">
@@ -8175,9 +8307,11 @@
       <c r="A150" s="2">
         <v>148</v>
       </c>
-      <c r="B150" s="14"/>
+      <c r="B150" s="14">
+        <v>43043</v>
+      </c>
       <c r="C150" s="2"/>
-      <c r="D150" s="31" t="s">
+      <c r="D150" s="30" t="s">
         <v>721</v>
       </c>
       <c r="E150" s="7" t="s">
@@ -8204,9 +8338,11 @@
       <c r="A151" s="2">
         <v>149</v>
       </c>
-      <c r="B151" s="14"/>
+      <c r="B151" s="14">
+        <v>43043</v>
+      </c>
       <c r="C151" s="2"/>
-      <c r="D151" s="31" t="s">
+      <c r="D151" s="30" t="s">
         <v>722</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -8233,9 +8369,11 @@
       <c r="A152" s="2">
         <v>150</v>
       </c>
-      <c r="B152" s="14"/>
+      <c r="B152" s="14">
+        <v>43043</v>
+      </c>
       <c r="C152" s="2"/>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="30" t="s">
         <v>745</v>
       </c>
       <c r="E152" s="7" t="s">
@@ -8262,9 +8400,11 @@
       <c r="A153" s="2">
         <v>151</v>
       </c>
-      <c r="B153" s="14"/>
+      <c r="B153" s="14">
+        <v>43043</v>
+      </c>
       <c r="C153" s="2"/>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="30" t="s">
         <v>723</v>
       </c>
       <c r="E153" s="7" t="s">
@@ -8291,9 +8431,11 @@
       <c r="A154" s="2">
         <v>152</v>
       </c>
-      <c r="B154" s="14"/>
+      <c r="B154" s="14">
+        <v>43043</v>
+      </c>
       <c r="C154" s="2"/>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="30" t="s">
         <v>724</v>
       </c>
       <c r="E154" s="7" t="s">
@@ -8320,9 +8462,11 @@
       <c r="A155" s="2">
         <v>153</v>
       </c>
-      <c r="B155" s="14"/>
+      <c r="B155" s="14">
+        <v>43043</v>
+      </c>
       <c r="C155" s="2"/>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="30" t="s">
         <v>725</v>
       </c>
       <c r="E155" s="7" t="s">
@@ -8349,9 +8493,11 @@
       <c r="A156" s="2">
         <v>154</v>
       </c>
-      <c r="B156" s="14"/>
+      <c r="B156" s="14">
+        <v>43043</v>
+      </c>
       <c r="C156" s="2"/>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="30" t="s">
         <v>726</v>
       </c>
       <c r="E156" s="7" t="s">
@@ -8378,9 +8524,11 @@
       <c r="A157" s="2">
         <v>155</v>
       </c>
-      <c r="B157" s="14"/>
+      <c r="B157" s="14">
+        <v>43043</v>
+      </c>
       <c r="C157" s="2"/>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="30" t="s">
         <v>810</v>
       </c>
       <c r="E157" s="7" t="s">
@@ -8407,9 +8555,11 @@
       <c r="A158" s="2">
         <v>156</v>
       </c>
-      <c r="B158" s="14"/>
+      <c r="B158" s="14">
+        <v>43043</v>
+      </c>
       <c r="C158" s="2"/>
-      <c r="D158" s="31" t="s">
+      <c r="D158" s="30" t="s">
         <v>811</v>
       </c>
       <c r="E158" s="7" t="s">
@@ -8436,9 +8586,11 @@
       <c r="A159" s="2">
         <v>157</v>
       </c>
-      <c r="B159" s="14"/>
+      <c r="B159" s="14">
+        <v>43043</v>
+      </c>
       <c r="C159" s="2"/>
-      <c r="D159" s="31" t="s">
+      <c r="D159" s="30" t="s">
         <v>812</v>
       </c>
       <c r="E159" s="7" t="s">
@@ -8465,9 +8617,11 @@
       <c r="A160" s="2">
         <v>158</v>
       </c>
-      <c r="B160" s="14"/>
+      <c r="B160" s="14">
+        <v>43043</v>
+      </c>
       <c r="C160" s="2"/>
-      <c r="D160" s="31" t="s">
+      <c r="D160" s="30" t="s">
         <v>813</v>
       </c>
       <c r="E160" s="7" t="s">
@@ -8494,9 +8648,11 @@
       <c r="A161" s="2">
         <v>159</v>
       </c>
-      <c r="B161" s="14"/>
+      <c r="B161" s="14">
+        <v>43043</v>
+      </c>
       <c r="C161" s="2"/>
-      <c r="D161" s="31" t="s">
+      <c r="D161" s="30" t="s">
         <v>814</v>
       </c>
       <c r="E161" s="7" t="s">
@@ -8523,9 +8679,11 @@
       <c r="A162" s="2">
         <v>160</v>
       </c>
-      <c r="B162" s="14"/>
+      <c r="B162" s="14">
+        <v>43043</v>
+      </c>
       <c r="C162" s="2"/>
-      <c r="D162" s="31" t="s">
+      <c r="D162" s="30" t="s">
         <v>815</v>
       </c>
       <c r="E162" s="7" t="s">
@@ -8552,9 +8710,11 @@
       <c r="A163" s="2">
         <v>161</v>
       </c>
-      <c r="B163" s="14"/>
+      <c r="B163" s="14">
+        <v>43043</v>
+      </c>
       <c r="C163" s="2"/>
-      <c r="D163" s="31" t="s">
+      <c r="D163" s="30" t="s">
         <v>816</v>
       </c>
       <c r="E163" s="7" t="s">
@@ -8581,9 +8741,11 @@
       <c r="A164" s="2">
         <v>162</v>
       </c>
-      <c r="B164" s="14"/>
+      <c r="B164" s="14">
+        <v>43043</v>
+      </c>
       <c r="C164" s="2"/>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="30" t="s">
         <v>817</v>
       </c>
       <c r="E164" s="7" t="s">
@@ -8610,9 +8772,11 @@
       <c r="A165" s="2">
         <v>163</v>
       </c>
-      <c r="B165" s="14"/>
+      <c r="B165" s="14">
+        <v>43043</v>
+      </c>
       <c r="C165" s="2"/>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="30" t="s">
         <v>818</v>
       </c>
       <c r="E165" s="7" t="s">
@@ -8641,12 +8805,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8686,18 +8850,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5">
       <c r="B1" s="1"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="24">
       <c r="A2" s="3" t="s">
@@ -9091,12 +9255,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9123,18 +9287,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="22.5">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="24">
       <c r="A2" s="3" t="s">
@@ -9210,12 +9374,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(COUNTIF($L$2:$L$2, L2)&gt;1,NOT(ISBLANK(L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND(COUNTIF($F$2:$F$2, F2)&gt;1,NOT(ISBLANK(F2)))</formula>
     </cfRule>
   </conditionalFormatting>
